--- a/data/compatibility/openEuler20.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS上两类平台板卡兼容清单.xlsx
@@ -392,6 +392,9 @@
     <t>9440-8i</t>
   </si>
   <si>
+    <t>SAS3408</t>
+  </si>
+  <si>
     <t>02312QWY</t>
   </si>
   <si>
@@ -715,26 +718,7 @@
     <t>02311PCJ</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
+    <t>0016</t>
   </si>
   <si>
     <t>d215</t>
@@ -743,7 +727,7 @@
     <t>RU450C-M</t>
   </si>
   <si>
-    <t>Avago3508</t>
+    <t>SAS3508</t>
   </si>
   <si>
     <t>03024MCK</t>
@@ -764,7 +748,7 @@
     <t>SP460C-M</t>
   </si>
   <si>
-    <t>Avago3516</t>
+    <t>SAS3516</t>
   </si>
   <si>
     <t>03024JNE</t>
@@ -774,9 +758,6 @@
   </si>
   <si>
     <t>6.27MB</t>
-  </si>
-  <si>
-    <t>SAS3516</t>
   </si>
   <si>
     <t>02313CYV/02312CRG</t>
@@ -861,7 +842,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,13 +1004,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1524,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
@@ -1583,7 +1557,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,9 +1919,9 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2128,7 +2101,7 @@
       <c r="P3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2178,7 +2151,7 @@
       <c r="P4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2228,7 +2201,7 @@
       <c r="P5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2278,7 +2251,7 @@
       <c r="P6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2328,7 +2301,7 @@
       <c r="P7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2482,7 +2455,7 @@
         <v>77</v>
       </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2532,7 +2505,7 @@
       <c r="P11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2582,7 +2555,7 @@
       <c r="P12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2633,7 +2606,7 @@
       <c r="P13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2684,7 +2657,7 @@
       <c r="P14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2735,7 +2708,7 @@
       <c r="P15" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="Q15" s="29" t="s">
+      <c r="Q15" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2780,14 +2753,14 @@
       <c r="N16" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="24" t="s">
-        <v>110</v>
+      <c r="O16" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="30" t="s">
         <v>112</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2795,13 +2768,13 @@
         <v>52</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>22</v>
@@ -2810,35 +2783,35 @@
         <v>23</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="18" t="s">
         <v>61</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="30" t="s">
         <v>122</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2846,13 +2819,13 @@
         <v>52</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>22</v>
@@ -2861,33 +2834,33 @@
         <v>23</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>61</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="18"/>
-      <c r="Q18" s="30" t="s">
-        <v>122</v>
+      <c r="Q18" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2895,13 +2868,13 @@
         <v>52</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>22</v>
@@ -2910,10 +2883,10 @@
         <v>23</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>57</v>
@@ -2923,20 +2896,20 @@
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>61</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P19" s="18"/>
-      <c r="Q19" s="30" t="s">
-        <v>130</v>
+      <c r="Q19" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2944,13 +2917,13 @@
         <v>52</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>22</v>
@@ -2959,33 +2932,33 @@
         <v>23</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" s="18"/>
-      <c r="Q20" s="30" t="s">
-        <v>130</v>
+      <c r="Q20" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2999,10 +2972,10 @@
         <v>52</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>23</v>
@@ -3011,32 +2984,32 @@
         <v>71</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>75</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>77</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="30" t="s">
         <v>141</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3053,7 +3026,7 @@
         <v>98</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>23</v>
@@ -3062,7 +3035,7 @@
         <v>71</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>57</v>
@@ -3072,7 +3045,7 @@
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="18" t="s">
         <v>75</v>
@@ -3086,8 +3059,8 @@
       <c r="P22" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="Q22" s="30" t="s">
-        <v>141</v>
+      <c r="Q22" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3101,10 +3074,10 @@
         <v>68</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>23</v>
@@ -3113,32 +3086,32 @@
         <v>71</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="18" t="s">
         <v>75</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O23" s="18" t="s">
         <v>84</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="30" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3152,10 +3125,10 @@
         <v>68</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>23</v>
@@ -3164,32 +3137,32 @@
         <v>71</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M24" s="18" t="s">
         <v>75</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O24" s="18" t="s">
         <v>84</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3197,16 +3170,16 @@
         <v>68</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>23</v>
@@ -3215,7 +3188,7 @@
         <v>71</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>57</v>
@@ -3225,48 +3198,48 @@
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M25" s="18" t="s">
         <v>75</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>57</v>
@@ -3276,22 +3249,22 @@
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="28" t="s">
         <v>163</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3305,19 +3278,19 @@
         <v>52</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>57</v>
@@ -3327,19 +3300,19 @@
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="23" t="s">
         <v>65</v>
@@ -3356,44 +3329,44 @@
         <v>52</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="30" t="s">
         <v>174</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3401,50 +3374,50 @@
         <v>8086</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30" s="6" customFormat="1" spans="1:17">
@@ -3452,50 +3425,50 @@
         <v>8086</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" s="6" customFormat="1" spans="1:17">
@@ -3503,50 +3476,50 @@
         <v>8086</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q31" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" spans="1:17">
@@ -3554,50 +3527,50 @@
         <v>8086</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q32" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3611,44 +3584,44 @@
         <v>52</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>57</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>174</v>
+        <v>190</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3656,16 +3629,16 @@
         <v>1000</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>23</v>
@@ -3680,26 +3653,26 @@
         <v>106</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M34" s="18" t="s">
         <v>109</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q34" s="30" t="s">
         <v>196</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3707,7 +3680,7 @@
         <v>1000</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>101</v>
@@ -3716,7 +3689,7 @@
         <v>9361</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>23</v>
@@ -3731,26 +3704,26 @@
         <v>106</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M35" s="18" t="s">
         <v>109</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q35" s="30" t="s">
-        <v>196</v>
+        <v>201</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3758,16 +3731,16 @@
         <v>1000</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>23</v>
@@ -3786,22 +3759,22 @@
       </c>
       <c r="K36" s="18"/>
       <c r="L36" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M36" s="18" t="s">
         <v>109</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q36" s="30" t="s">
-        <v>196</v>
+        <v>204</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3809,16 +3782,16 @@
         <v>1000</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>23</v>
@@ -3837,22 +3810,22 @@
       </c>
       <c r="K37" s="18"/>
       <c r="L37" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M37" s="18" t="s">
         <v>109</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q37" s="30" t="s">
-        <v>196</v>
+        <v>206</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3869,7 +3842,7 @@
         <v>9440</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>23</v>
@@ -3884,11 +3857,11 @@
         <v>106</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M38" s="18" t="s">
         <v>109</v>
@@ -3896,14 +3869,14 @@
       <c r="N38" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>110</v>
+      <c r="O38" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q38" s="30" t="s">
-        <v>196</v>
+        <v>112</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3911,16 +3884,16 @@
         <v>1000</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>23</v>
@@ -3935,26 +3908,26 @@
         <v>106</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M39" s="18" t="s">
         <v>109</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q39" s="30" t="s">
-        <v>196</v>
+        <v>211</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3962,16 +3935,16 @@
         <v>1000</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>23</v>
@@ -3990,22 +3963,22 @@
       </c>
       <c r="K40" s="18"/>
       <c r="L40" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M40" s="18" t="s">
         <v>109</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q40" s="30" t="s">
-        <v>196</v>
+        <v>213</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4013,16 +3986,16 @@
         <v>1000</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>23</v>
@@ -4037,26 +4010,26 @@
         <v>106</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M41" s="18" t="s">
         <v>109</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q41" s="30" t="s">
-        <v>196</v>
+        <v>218</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="42" s="7" customFormat="1" spans="1:17">
@@ -4064,13 +4037,13 @@
         <v>1000</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>22</v>
@@ -4084,30 +4057,30 @@
       <c r="H42" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="26" t="s">
         <v>106</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K42" s="23"/>
-      <c r="L42" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="M42" s="27" t="s">
+      <c r="L42" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M42" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="N42" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="O42" s="28" t="s">
-        <v>220</v>
+      <c r="N42" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="P42" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>112</v>
+      <c r="Q42" s="30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4154,7 +4127,7 @@
         <v>230</v>
       </c>
       <c r="P43" s="17"/>
-      <c r="Q43" s="30" t="s">
+      <c r="Q43" s="29" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4203,7 +4176,7 @@
         <v>230</v>
       </c>
       <c r="P44" s="18"/>
-      <c r="Q44" s="29" t="s">
+      <c r="Q44" s="28" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4232,7 +4205,7 @@
       <c r="H45" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="I45" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="18" t="s">
@@ -4250,7 +4223,7 @@
       <c r="O45" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="Q45" s="29" t="s">
+      <c r="Q45" s="28" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4279,7 +4252,7 @@
       <c r="H46" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="I46" s="28" t="s">
+      <c r="I46" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="18" t="s">
@@ -4297,7 +4270,7 @@
       <c r="O46" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="Q46" s="29" t="s">
+      <c r="Q46" s="28" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4306,16 +4279,16 @@
         <v>1000</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>23</v>
@@ -4334,7 +4307,7 @@
       </c>
       <c r="K47" s="18"/>
       <c r="L47" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M47" s="18" t="s">
         <v>109</v>
@@ -4343,11 +4316,11 @@
         <v>238</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P47" s="18"/>
-      <c r="Q47" s="30" t="s">
-        <v>196</v>
+      <c r="Q47" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4355,16 +4328,16 @@
         <v>1000</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>23</v>
@@ -4383,7 +4356,7 @@
       </c>
       <c r="K48" s="18"/>
       <c r="L48" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M48" s="18" t="s">
         <v>109</v>
@@ -4392,11 +4365,11 @@
         <v>239</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P48" s="18"/>
-      <c r="Q48" s="30" t="s">
-        <v>196</v>
+      <c r="Q48" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -4404,16 +4377,16 @@
         <v>1000</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>23</v>
@@ -4432,7 +4405,7 @@
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M49" s="18" t="s">
         <v>109</v>
@@ -4441,11 +4414,11 @@
         <v>240</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P49" s="18"/>
-      <c r="Q49" s="30" t="s">
-        <v>196</v>
+      <c r="Q49" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -4453,7 +4426,7 @@
         <v>1000</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>52</v>
@@ -4462,7 +4435,7 @@
         <v>241</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>23</v>
@@ -4481,7 +4454,7 @@
       </c>
       <c r="K50" s="18"/>
       <c r="L50" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M50" s="18" t="s">
         <v>109</v>
@@ -4490,11 +4463,11 @@
         <v>242</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P50" s="18"/>
-      <c r="Q50" s="30" t="s">
-        <v>196</v>
+      <c r="Q50" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4502,7 +4475,7 @@
         <v>1000</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>52</v>
@@ -4511,7 +4484,7 @@
         <v>243</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>23</v>
@@ -4530,7 +4503,7 @@
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>109</v>
@@ -4539,11 +4512,11 @@
         <v>244</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P51" s="18"/>
-      <c r="Q51" s="30" t="s">
-        <v>196</v>
+      <c r="Q51" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/compatibility/openEuler20.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS上两类平台板卡兼容清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP1两类平台板卡兼容性'!$A$1:$Q$52</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="255">
   <si>
     <t>vendorID</t>
   </si>
@@ -830,6 +830,93 @@
   </si>
   <si>
     <t>SR630C-M</t>
+  </si>
+  <si>
+    <t>d213</t>
+  </si>
+  <si>
+    <t>07.722.02.00</t>
+  </si>
+  <si>
+    <t>2022.08.25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2MB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R150-M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS3408</t>
+    </r>
+  </si>
+  <si>
+    <t>03033FAT/03024JNF</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz</t>
+  </si>
+  <si>
+    <t>SP150-M</t>
+  </si>
+  <si>
+    <t>RU150-M</t>
   </si>
 </sst>
 </file>
@@ -857,7 +944,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1498,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
@@ -1563,6 +1650,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1916,12 +2006,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2101,7 +2191,7 @@
       <c r="P3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2151,7 +2241,7 @@
       <c r="P4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2201,7 +2291,7 @@
       <c r="P5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2251,7 +2341,7 @@
       <c r="P6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2301,7 +2391,7 @@
       <c r="P7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2455,7 +2545,7 @@
         <v>77</v>
       </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2505,7 +2595,7 @@
       <c r="P11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2555,7 +2645,7 @@
       <c r="P12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2606,7 +2696,7 @@
       <c r="P13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2657,7 +2747,7 @@
       <c r="P14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2708,7 +2798,7 @@
       <c r="P15" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2759,7 +2849,7 @@
       <c r="P16" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="29" t="s">
+      <c r="Q16" s="30" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2810,7 +2900,7 @@
       <c r="P17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="30" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2859,7 +2949,7 @@
         <v>121</v>
       </c>
       <c r="P18" s="18"/>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="30" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2908,7 +2998,7 @@
         <v>121</v>
       </c>
       <c r="P19" s="18"/>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="30" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2957,7 +3047,7 @@
         <v>121</v>
       </c>
       <c r="P20" s="18"/>
-      <c r="Q20" s="29" t="s">
+      <c r="Q20" s="30" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3008,7 +3098,7 @@
       <c r="P21" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Q21" s="29" t="s">
+      <c r="Q21" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3059,7 +3149,7 @@
       <c r="P22" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3110,7 +3200,7 @@
       <c r="P23" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3161,7 +3251,7 @@
       <c r="P24" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q24" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3212,7 +3302,7 @@
       <c r="P25" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="Q25" s="29" t="s">
+      <c r="Q25" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3365,7 +3455,7 @@
       <c r="P28" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="Q28" s="29" t="s">
+      <c r="Q28" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3416,7 +3506,7 @@
       <c r="P29" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3467,7 +3557,7 @@
       <c r="P30" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="Q30" s="29" t="s">
+      <c r="Q30" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3518,7 +3608,7 @@
       <c r="P31" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="Q31" s="29" t="s">
+      <c r="Q31" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3569,7 +3659,7 @@
       <c r="P32" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="Q32" s="29" t="s">
+      <c r="Q32" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3620,7 +3710,7 @@
       <c r="P33" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="Q33" s="29" t="s">
+      <c r="Q33" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3671,7 +3761,7 @@
       <c r="P34" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="Q34" s="29" t="s">
+      <c r="Q34" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3722,7 +3812,7 @@
       <c r="P35" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="Q35" s="29" t="s">
+      <c r="Q35" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3773,7 +3863,7 @@
       <c r="P36" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="Q36" s="29" t="s">
+      <c r="Q36" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3824,7 +3914,7 @@
       <c r="P37" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="Q37" s="29" t="s">
+      <c r="Q37" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3875,7 +3965,7 @@
       <c r="P38" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="Q38" s="29" t="s">
+      <c r="Q38" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3926,7 +4016,7 @@
       <c r="P39" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="Q39" s="29" t="s">
+      <c r="Q39" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3977,7 +4067,7 @@
       <c r="P40" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="Q40" s="29" t="s">
+      <c r="Q40" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4028,7 +4118,7 @@
       <c r="P41" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="Q41" s="29" t="s">
+      <c r="Q41" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4079,7 +4169,7 @@
       <c r="P42" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="Q42" s="30" t="s">
+      <c r="Q42" s="31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4127,7 +4217,7 @@
         <v>230</v>
       </c>
       <c r="P43" s="17"/>
-      <c r="Q43" s="29" t="s">
+      <c r="Q43" s="30" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4176,7 +4266,7 @@
         <v>230</v>
       </c>
       <c r="P44" s="18"/>
-      <c r="Q44" s="28" t="s">
+      <c r="Q44" s="29" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4223,7 +4313,7 @@
       <c r="O45" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="Q45" s="28" t="s">
+      <c r="Q45" s="29" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4270,7 +4360,7 @@
       <c r="O46" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="Q46" s="28" t="s">
+      <c r="Q46" s="29" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4319,7 +4409,7 @@
         <v>200</v>
       </c>
       <c r="P47" s="18"/>
-      <c r="Q47" s="29" t="s">
+      <c r="Q47" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4368,7 +4458,7 @@
         <v>200</v>
       </c>
       <c r="P48" s="18"/>
-      <c r="Q48" s="29" t="s">
+      <c r="Q48" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4417,7 +4507,7 @@
         <v>200</v>
       </c>
       <c r="P49" s="18"/>
-      <c r="Q49" s="29" t="s">
+      <c r="Q49" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4466,7 +4556,7 @@
         <v>200</v>
       </c>
       <c r="P50" s="18"/>
-      <c r="Q50" s="29" t="s">
+      <c r="Q50" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4515,12 +4605,158 @@
         <v>200</v>
       </c>
       <c r="P51" s="18"/>
-      <c r="Q51" s="29" t="s">
+      <c r="Q51" s="30" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="O52" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="O53" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="O54" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q51">
+  <autoFilter ref="A1:Q52">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4548,6 +4784,9 @@
     <hyperlink ref="Q49" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/contrib/drivers/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
     <hyperlink ref="Q50" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/contrib/drivers/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
     <hyperlink ref="Q51" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/contrib/drivers/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q52" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
+    <hyperlink ref="Q53" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
+    <hyperlink ref="Q54" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
